--- a/src/aegis/etls/call_summary/canadian_banks_categories.xlsx
+++ b/src/aegis/etls/call_summary/canadian_banks_categories.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Template" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,11 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>report_section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>category_description</t>
         </is>
       </c>
@@ -463,6 +468,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Results Summary</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Overall financial results including revenue, net income, EPS, ROE, ROA, and key performance indicators</t>
         </is>
       </c>
@@ -480,6 +490,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Results Summary</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Detailed breakdown of revenue streams including net interest income, non-interest income, fee income, trading revenue, and wealth management income</t>
         </is>
       </c>
@@ -497,6 +512,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Results Summary</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Operating expenses, cost control initiatives, efficiency ratio, compensation costs, and technology investments</t>
         </is>
       </c>
@@ -514,6 +534,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Q&amp;A Summary</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Loan loss provisions, net charge-offs, impaired loans, coverage ratios, and credit risk indicators specific to Canadian portfolios</t>
         </is>
       </c>
@@ -531,6 +556,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Results Summary</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Capital ratios (CET1, Tier 1), liquidity coverage ratio, leverage ratio, OSFI requirements, and domestic stability buffer</t>
         </is>
       </c>
@@ -548,6 +578,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Q&amp;A Summary</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Loan growth by category, commercial loans, consumer loans, Canadian mortgage portfolio, and lending pipeline</t>
         </is>
       </c>
@@ -565,6 +600,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Results Summary</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Deposit growth, deposit mix, funding costs, deposit betas, and Canadian retail banking trends</t>
         </is>
       </c>
@@ -582,6 +622,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>Results Summary</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Performance by division including Canadian Banking, Capital Markets, Wealth Management, Insurance, and US/International operations</t>
         </is>
       </c>
@@ -599,6 +644,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Q&amp;A Summary</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>Commentary on Canadian economic environment, Bank of Canada rate outlook, housing market, and provincial economic trends</t>
         </is>
       </c>
@@ -616,6 +666,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>Q&amp;A Summary</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>Management guidance for future quarters, strategic priorities, growth targets, and forward-looking statements</t>
         </is>
       </c>
@@ -633,6 +688,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>Q&amp;A Summary</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>OSFI regulatory changes, B-20 guidelines, stress test results, and Canadian regulatory compliance matters</t>
         </is>
       </c>
@@ -650,6 +710,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>Q&amp;A Summary</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Digital transformation efforts, technology investments, AI/ML initiatives, and Canadian fintech partnerships</t>
         </is>
       </c>
@@ -667,6 +732,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>Q&amp;A Summary</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Canadian housing market exposure, mortgage portfolio quality, HELOC performance, and regional real estate trends</t>
         </is>
       </c>
@@ -684,6 +754,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>Q&amp;A Summary</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>Performance and strategy for US operations, international banking, and cross-border business</t>
         </is>
       </c>
@@ -700,6 +775,11 @@
         </is>
       </c>
       <c r="C16" t="inlineStr">
+        <is>
+          <t>Q&amp;A Summary</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>Discussion of operational risks, credit risks, market risks, regulatory risks, climate risks, and mitigation strategies</t>
         </is>
